--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -464,13 +464,13 @@
         <v>77431</v>
       </c>
       <c r="F2" t="n">
-        <v>0.66011272262951</v>
+        <v>0.660112722630998</v>
       </c>
       <c r="G2" t="n">
-        <v>88304.8179763578</v>
+        <v>88304.8179763648</v>
       </c>
       <c r="H2" t="n">
-        <v>-176597.635952716</v>
+        <v>-176597.63595273</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-176542.093097738</v>
+        <v>-176542.093097752</v>
       </c>
       <c r="L2" t="n">
-        <v>36139.2741444501</v>
+        <v>36139.27414445</v>
       </c>
       <c r="M2" t="n">
         <v>77425</v>
@@ -505,25 +505,25 @@
         <v>72173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.648290931437248</v>
+        <v>0.648291828587093</v>
       </c>
       <c r="G3" t="n">
-        <v>83960.4394617991</v>
+        <v>83960.4394621138</v>
       </c>
       <c r="H3" t="n">
-        <v>-167876.878923598</v>
+        <v>-167876.878924228</v>
       </c>
       <c r="I3" t="n">
-        <v>8720.75702911726</v>
+        <v>8720.75702850198</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-167674.768855136</v>
+        <v>-167674.768855766</v>
       </c>
       <c r="L3" t="n">
-        <v>32414.5685075155</v>
+        <v>32414.5685353517</v>
       </c>
       <c r="M3" t="n">
         <v>72151</v>
@@ -555,7 +555,7 @@
         <v>-161870.127012703</v>
       </c>
       <c r="I4" t="n">
-        <v>14727.5089400127</v>
+        <v>14727.5089400267</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -505,25 +505,25 @@
         <v>72173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.648291828587093</v>
+        <v>0.648290815188176</v>
       </c>
       <c r="G3" t="n">
-        <v>83960.4394621138</v>
+        <v>83960.4394597247</v>
       </c>
       <c r="H3" t="n">
-        <v>-167876.878924228</v>
+        <v>-167876.878919449</v>
       </c>
       <c r="I3" t="n">
-        <v>8720.75702850198</v>
+        <v>8720.7570332801</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-167674.768855766</v>
+        <v>-167674.768850988</v>
       </c>
       <c r="L3" t="n">
-        <v>32414.5685353517</v>
+        <v>32414.5685408552</v>
       </c>
       <c r="M3" t="n">
         <v>72151</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -505,25 +505,25 @@
         <v>72173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.648290815188176</v>
+        <v>0.648291274111411</v>
       </c>
       <c r="G3" t="n">
-        <v>83960.4394597247</v>
+        <v>83960.4394621176</v>
       </c>
       <c r="H3" t="n">
-        <v>-167876.878919449</v>
+        <v>-167876.878924235</v>
       </c>
       <c r="I3" t="n">
-        <v>8720.7570332801</v>
+        <v>8720.75702849432</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-167674.768850988</v>
+        <v>-167674.768855773</v>
       </c>
       <c r="L3" t="n">
-        <v>32414.5685408552</v>
+        <v>32414.5685427552</v>
       </c>
       <c r="M3" t="n">
         <v>72151</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -505,25 +505,25 @@
         <v>72173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.648291274111411</v>
+        <v>0.648292676600048</v>
       </c>
       <c r="G3" t="n">
-        <v>83960.4394621176</v>
+        <v>83960.4394617256</v>
       </c>
       <c r="H3" t="n">
-        <v>-167876.878924235</v>
+        <v>-167876.878923451</v>
       </c>
       <c r="I3" t="n">
-        <v>8720.75702849432</v>
+        <v>8720.75702927841</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-167674.768855773</v>
+        <v>-167674.768854989</v>
       </c>
       <c r="L3" t="n">
-        <v>32414.5685427552</v>
+        <v>32414.5685920514</v>
       </c>
       <c r="M3" t="n">
         <v>72151</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -1,88 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\accel-glmm-results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF992E4-03FF-4422-BFB7-A2150126A349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logLik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta_AIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIC_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df.residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_accel ~ season + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_accel ~ habitat_type * season + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_accel ~ habitat_type + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nobs</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>logLik</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>delta_AIC</t>
+  </si>
+  <si>
+    <t>AIC_weight</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>df.residual</t>
+  </si>
+  <si>
+    <t>lognormal</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>mean_accel ~ habitat_type * season * day_night + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mean_accel ~ season + day_night + (1 | animal_id) + season:day_night</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>mean_accel ~ habitat_type + day_night + (1 | animal_id) + habitat_type:day_night</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>mean_accel ~ season + habitat_type + (1 | animal_id) + season:habitat_type</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>mean_accel ~ day_night + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>mean_accel ~ season + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>mean_accel ~ habitat_type + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t>m1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,6 +146,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,14 +436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,135 +485,275 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>80579</v>
+      </c>
+      <c r="F2">
+        <v>0.107915285264191</v>
+      </c>
+      <c r="G2">
+        <v>97152.129968889305</v>
+      </c>
+      <c r="H2">
+        <v>-194142.25993777899</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>-193389.203476539</v>
+      </c>
+      <c r="L2">
+        <v>80498</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>77431</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.660112722630998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>88304.8179763648</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-176597.63595273</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>80579</v>
+      </c>
+      <c r="F3">
+        <v>0.108080375720078</v>
+      </c>
+      <c r="G3">
+        <v>96615.711024258606</v>
+      </c>
+      <c r="H3">
+        <v>-193195.42204851701</v>
+      </c>
+      <c r="I3">
+        <v>946.83788926136901</v>
+      </c>
+      <c r="J3">
+        <v>2.4932436317215701E-206</v>
+      </c>
+      <c r="K3">
+        <v>-193028.076168242</v>
+      </c>
+      <c r="L3">
+        <v>80561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>80579</v>
+      </c>
+      <c r="F4">
+        <v>0.107710650567362</v>
+      </c>
+      <c r="G4">
+        <v>96249.959443176107</v>
+      </c>
+      <c r="H4">
+        <v>-192455.91888635201</v>
+      </c>
+      <c r="I4">
+        <v>1686.3410514264301</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-176542.093097752</v>
-      </c>
-      <c r="L2" t="n">
-        <v>36139.27414445</v>
-      </c>
-      <c r="M2" t="n">
-        <v>77425</v>
+      <c r="K4">
+        <v>-192251.38503268201</v>
+      </c>
+      <c r="L4">
+        <v>80557</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>72173</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.648292676600048</v>
-      </c>
-      <c r="G3" t="n">
-        <v>83960.4394617256</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-167876.878923451</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8720.75702927841</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>80579</v>
+      </c>
+      <c r="F5">
+        <v>0.10835138099944901</v>
+      </c>
+      <c r="G5">
+        <v>96220.870751162307</v>
+      </c>
+      <c r="H5">
+        <v>-192397.74150232499</v>
+      </c>
+      <c r="I5">
+        <v>1744.5184354539399</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>-167674.768854989</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32414.5685920514</v>
-      </c>
-      <c r="M3" t="n">
-        <v>72151</v>
+      <c r="K5">
+        <v>-192193.20764865499</v>
+      </c>
+      <c r="L5">
+        <v>80557</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>72173</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.67249682219095</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80942.0635063514</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-161870.127012703</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14727.5089400267</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>80579</v>
+      </c>
+      <c r="F6">
+        <v>0.10792276487937</v>
+      </c>
+      <c r="G6">
+        <v>96025.499955708001</v>
+      </c>
+      <c r="H6">
+        <v>-192038.999911416</v>
+      </c>
+      <c r="I6">
+        <v>2103.26002636261</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
-        <v>-161805.819263647</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35045.501760615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>72166</v>
+      <c r="K6">
+        <v>-191983.21795132401</v>
+      </c>
+      <c r="L6">
+        <v>80573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>80579</v>
+      </c>
+      <c r="F7">
+        <v>0.10843643308498201</v>
+      </c>
+      <c r="G7">
+        <v>95845.748974624701</v>
+      </c>
+      <c r="H7">
+        <v>-191679.49794924899</v>
+      </c>
+      <c r="I7">
+        <v>2462.7619885292702</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-191623.715989157</v>
+      </c>
+      <c r="L7">
+        <v>80573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>80579</v>
+      </c>
+      <c r="F8">
+        <v>0.10808400085979999</v>
+      </c>
+      <c r="G8">
+        <v>95419.801831877194</v>
+      </c>
+      <c r="H8">
+        <v>-190825.60366375401</v>
+      </c>
+      <c r="I8">
+        <v>3316.6562740242498</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-190760.524710314</v>
+      </c>
+      <c r="L8">
+        <v>80572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -1,116 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\accel-glmm-results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF992E4-03FF-4422-BFB7-A2150126A349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>nobs</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>logLik</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>delta_AIC</t>
-  </si>
-  <si>
-    <t>AIC_weight</t>
-  </si>
-  <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>df.residual</t>
-  </si>
-  <si>
-    <t>lognormal</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>mean_accel ~ habitat_type * season * day_night + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>mean_accel ~ season + day_night + (1 | animal_id) + season:day_night</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>mean_accel ~ habitat_type + day_night + (1 | animal_id) + habitat_type:day_night</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>mean_accel ~ season + habitat_type + (1 | animal_id) + season:habitat_type</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>mean_accel ~ day_night + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>mean_accel ~ season + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>mean_accel ~ habitat_type + (1 | animal_id)</t>
-  </si>
-  <si>
-    <t>m1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logLik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_AIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df.residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ habitat_type * season * day_night + (1 | animal_id) + ar1(season + 0 | animal_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ season + day_night + (1 | animal_id) + season:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ habitat_type + day_night + (1 | animal_id) + habitat_type:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ season + habitat_type + (1 | animal_id) + season:habitat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ day_night + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ season + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_accel ~ habitat_type + (1 | animal_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,15 +139,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -436,19 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -499,32 +478,32 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>80579</v>
       </c>
-      <c r="F2">
-        <v>0.107915285264191</v>
-      </c>
-      <c r="G2">
-        <v>97152.129968889305</v>
-      </c>
-      <c r="H2">
-        <v>-194142.25993777899</v>
-      </c>
-      <c r="I2">
+      <c r="F2" t="n">
+        <v>0.10770847961907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97520.0880678259</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-194874.176135652</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>-193389.203476539</v>
-      </c>
-      <c r="L2">
-        <v>80498</v>
+      <c r="K2" t="n">
+        <v>-194102.525687715</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80496</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -537,32 +516,32 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80579</v>
       </c>
-      <c r="F3">
-        <v>0.108080375720078</v>
-      </c>
-      <c r="G3">
-        <v>96615.711024258606</v>
-      </c>
-      <c r="H3">
-        <v>-193195.42204851701</v>
-      </c>
-      <c r="I3">
-        <v>946.83788926136901</v>
-      </c>
-      <c r="J3">
-        <v>2.4932436317215701E-206</v>
-      </c>
-      <c r="K3">
-        <v>-193028.076168242</v>
-      </c>
-      <c r="L3">
+      <c r="F3" t="n">
+        <v>0.108080375728955</v>
+      </c>
+      <c r="G3" t="n">
+        <v>96615.7110242614</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-193195.422048523</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1678.75408712894</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-193028.076168247</v>
+      </c>
+      <c r="L3" t="n">
         <v>80561</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -575,32 +554,32 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>80579</v>
       </c>
-      <c r="F4">
-        <v>0.107710650567362</v>
-      </c>
-      <c r="G4">
-        <v>96249.959443176107</v>
-      </c>
-      <c r="H4">
-        <v>-192455.91888635201</v>
-      </c>
-      <c r="I4">
-        <v>1686.3410514264301</v>
-      </c>
-      <c r="J4">
+      <c r="F4" t="n">
+        <v>0.107710649480812</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96249.9594431719</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-192455.918886344</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2418.25724930794</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>-192251.38503268201</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>-192251.385032674</v>
+      </c>
+      <c r="L4" t="n">
         <v>80557</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -613,32 +592,32 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>80579</v>
       </c>
-      <c r="F5">
-        <v>0.10835138099944901</v>
-      </c>
-      <c r="G5">
-        <v>96220.870751162307</v>
-      </c>
-      <c r="H5">
-        <v>-192397.74150232499</v>
-      </c>
-      <c r="I5">
-        <v>1744.5184354539399</v>
-      </c>
-      <c r="J5">
+      <c r="F5" t="n">
+        <v>0.108351381263608</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96220.8707511277</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-192397.741502255</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2476.43463339645</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>-192193.20764865499</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>-192193.207648585</v>
+      </c>
+      <c r="L5" t="n">
         <v>80557</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -651,32 +630,32 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>80579</v>
       </c>
-      <c r="F6">
-        <v>0.10792276487937</v>
-      </c>
-      <c r="G6">
-        <v>96025.499955708001</v>
-      </c>
-      <c r="H6">
-        <v>-192038.999911416</v>
-      </c>
-      <c r="I6">
-        <v>2103.26002636261</v>
-      </c>
-      <c r="J6">
+      <c r="F6" t="n">
+        <v>0.107922764889834</v>
+      </c>
+      <c r="G6" t="n">
+        <v>96025.499955716</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-192038.999911432</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2835.17622421985</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>-191983.21795132401</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>-191983.21795134</v>
+      </c>
+      <c r="L6" t="n">
         <v>80573</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -689,32 +668,32 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>80579</v>
       </c>
-      <c r="F7">
-        <v>0.10843643308498201</v>
-      </c>
-      <c r="G7">
-        <v>95845.748974624701</v>
-      </c>
-      <c r="H7">
-        <v>-191679.49794924899</v>
-      </c>
-      <c r="I7">
-        <v>2462.7619885292702</v>
-      </c>
-      <c r="J7">
+      <c r="F7" t="n">
+        <v>0.108436433145196</v>
+      </c>
+      <c r="G7" t="n">
+        <v>95845.7489746321</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-191679.497949264</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3194.67818638749</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>-191623.715989157</v>
-      </c>
-      <c r="L7">
+      <c r="K7" t="n">
+        <v>-191623.715989172</v>
+      </c>
+      <c r="L7" t="n">
         <v>80573</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -727,33 +706,33 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>80579</v>
       </c>
-      <c r="F8">
-        <v>0.10808400085979999</v>
-      </c>
-      <c r="G8">
-        <v>95419.801831877194</v>
-      </c>
-      <c r="H8">
-        <v>-190825.60366375401</v>
-      </c>
-      <c r="I8">
-        <v>3316.6562740242498</v>
-      </c>
-      <c r="J8">
+      <c r="F8" t="n">
+        <v>0.108084000859689</v>
+      </c>
+      <c r="G8" t="n">
+        <v>95419.8018318779</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-190825.603663756</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4048.57247189604</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>-190760.524710314</v>
-      </c>
-      <c r="L8">
+      <c r="K8" t="n">
+        <v>-190760.524710315</v>
+      </c>
+      <c r="L8" t="n">
         <v>80572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -482,13 +482,13 @@
         <v>80579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10770847961907</v>
+        <v>0.10769139134775</v>
       </c>
       <c r="G2" t="n">
-        <v>97520.0880678259</v>
+        <v>97520.2281613775</v>
       </c>
       <c r="H2" t="n">
-        <v>-194874.176135652</v>
+        <v>-194874.456322755</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-194102.525687715</v>
+        <v>-194102.805874818</v>
       </c>
       <c r="L2" t="n">
         <v>80496</v>
@@ -520,22 +520,22 @@
         <v>80579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108080375728955</v>
+        <v>0.108080375720078</v>
       </c>
       <c r="G3" t="n">
-        <v>96615.7110242614</v>
+        <v>96615.7110242586</v>
       </c>
       <c r="H3" t="n">
-        <v>-193195.422048523</v>
+        <v>-193195.422048517</v>
       </c>
       <c r="I3" t="n">
-        <v>1678.75408712894</v>
+        <v>1679.03427423778</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-193028.076168247</v>
+        <v>-193028.076168242</v>
       </c>
       <c r="L3" t="n">
         <v>80561</v>
@@ -558,22 +558,22 @@
         <v>80579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.107710649480812</v>
+        <v>0.10771065056736</v>
       </c>
       <c r="G4" t="n">
-        <v>96249.9594431719</v>
+        <v>96249.9594431749</v>
       </c>
       <c r="H4" t="n">
-        <v>-192455.918886344</v>
+        <v>-192455.91888635</v>
       </c>
       <c r="I4" t="n">
-        <v>2418.25724930794</v>
+        <v>2418.53743640525</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-192251.385032674</v>
+        <v>-192251.38503268</v>
       </c>
       <c r="L4" t="n">
         <v>80557</v>
@@ -596,22 +596,22 @@
         <v>80579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108351381263608</v>
+        <v>0.108351380927765</v>
       </c>
       <c r="G5" t="n">
-        <v>96220.8707511277</v>
+        <v>96220.8707511761</v>
       </c>
       <c r="H5" t="n">
-        <v>-192397.741502255</v>
+        <v>-192397.741502352</v>
       </c>
       <c r="I5" t="n">
-        <v>2476.43463339645</v>
+        <v>2476.71482040279</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-192193.207648585</v>
+        <v>-192193.207648682</v>
       </c>
       <c r="L5" t="n">
         <v>80557</v>
@@ -643,7 +643,7 @@
         <v>-192038.999911432</v>
       </c>
       <c r="I6" t="n">
-        <v>2835.17622421985</v>
+        <v>2835.4564113231</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -672,22 +672,22 @@
         <v>80579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.108436433145196</v>
+        <v>0.108436433145375</v>
       </c>
       <c r="G7" t="n">
-        <v>95845.7489746321</v>
+        <v>95845.7489746352</v>
       </c>
       <c r="H7" t="n">
-        <v>-191679.497949264</v>
+        <v>-191679.49794927</v>
       </c>
       <c r="I7" t="n">
-        <v>3194.67818638749</v>
+        <v>3194.95837348461</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-191623.715989172</v>
+        <v>-191623.715989179</v>
       </c>
       <c r="L7" t="n">
         <v>80573</v>
@@ -710,22 +710,22 @@
         <v>80579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.108084000859689</v>
+        <v>0.108084000859814</v>
       </c>
       <c r="G8" t="n">
-        <v>95419.8018318779</v>
+        <v>95419.8018318762</v>
       </c>
       <c r="H8" t="n">
-        <v>-190825.603663756</v>
+        <v>-190825.603663752</v>
       </c>
       <c r="I8" t="n">
-        <v>4048.57247189604</v>
+        <v>4048.85265900267</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-190760.524710315</v>
+        <v>-190760.524710312</v>
       </c>
       <c r="L8" t="n">
         <v>80572</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">log</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_accel ~ habitat_type * season * day_night + (1 | animal_id) + ar1(season + 0 | animal_id)</t>
+    <t xml:space="preserve">mean_accel ~ habitat_type * season * day_night + (1 | animal_id)</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
@@ -482,13 +482,13 @@
         <v>80579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10769139134775</v>
+        <v>0.107915285263934</v>
       </c>
       <c r="G2" t="n">
-        <v>97520.2281613775</v>
+        <v>97152.1299688854</v>
       </c>
       <c r="H2" t="n">
-        <v>-194874.456322755</v>
+        <v>-194142.259937771</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-194102.805874818</v>
+        <v>-193389.203476531</v>
       </c>
       <c r="L2" t="n">
-        <v>80496</v>
+        <v>80498</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>-193195.422048517</v>
       </c>
       <c r="I3" t="n">
-        <v>1679.03427423778</v>
+        <v>946.837889253657</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.49324364133616e-206</v>
       </c>
       <c r="K3" t="n">
         <v>-193028.076168242</v>
@@ -567,7 +567,7 @@
         <v>-192455.91888635</v>
       </c>
       <c r="I4" t="n">
-        <v>2418.53743640525</v>
+        <v>1686.34105142113</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>80579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108351380927765</v>
+        <v>0.10835138099944</v>
       </c>
       <c r="G5" t="n">
-        <v>96220.8707511761</v>
+        <v>96220.8707511627</v>
       </c>
       <c r="H5" t="n">
-        <v>-192397.741502352</v>
+        <v>-192397.741502325</v>
       </c>
       <c r="I5" t="n">
-        <v>2476.71482040279</v>
+        <v>1744.51843544553</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-192193.207648682</v>
+        <v>-192193.207648655</v>
       </c>
       <c r="L5" t="n">
         <v>80557</v>
@@ -634,22 +634,22 @@
         <v>80579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.107922764889834</v>
+        <v>0.107922764853945</v>
       </c>
       <c r="G6" t="n">
-        <v>96025.499955716</v>
+        <v>96025.4999556982</v>
       </c>
       <c r="H6" t="n">
-        <v>-192038.999911432</v>
+        <v>-192038.999911396</v>
       </c>
       <c r="I6" t="n">
-        <v>2835.4564113231</v>
+        <v>2103.26002637448</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-191983.21795134</v>
+        <v>-191983.217951305</v>
       </c>
       <c r="L6" t="n">
         <v>80573</v>
@@ -672,22 +672,22 @@
         <v>80579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.108436433145375</v>
+        <v>0.108436433145455</v>
       </c>
       <c r="G7" t="n">
-        <v>95845.7489746352</v>
+        <v>95845.748974635</v>
       </c>
       <c r="H7" t="n">
         <v>-191679.49794927</v>
       </c>
       <c r="I7" t="n">
-        <v>3194.95837348461</v>
+        <v>2462.7619885008</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-191623.715989179</v>
+        <v>-191623.715989178</v>
       </c>
       <c r="L7" t="n">
         <v>80573</v>
@@ -710,22 +710,22 @@
         <v>80579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.108084000859814</v>
+        <v>0.108084000859798</v>
       </c>
       <c r="G8" t="n">
-        <v>95419.8018318762</v>
+        <v>95419.8018318772</v>
       </c>
       <c r="H8" t="n">
-        <v>-190825.603663752</v>
+        <v>-190825.603663754</v>
       </c>
       <c r="I8" t="n">
-        <v>4048.85265900267</v>
+        <v>3316.65627401657</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-190760.524710312</v>
+        <v>-190760.524710314</v>
       </c>
       <c r="L8" t="n">
         <v>80572</v>

--- a/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_model_selection_hab_season_np.xlsx
@@ -482,13 +482,13 @@
         <v>80579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107915285263934</v>
+        <v>0.107915285264147</v>
       </c>
       <c r="G2" t="n">
-        <v>97152.1299688854</v>
+        <v>97152.1299688922</v>
       </c>
       <c r="H2" t="n">
-        <v>-194142.259937771</v>
+        <v>-194142.259937784</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-193389.203476531</v>
+        <v>-193389.203476544</v>
       </c>
       <c r="L2" t="n">
         <v>80498</v>
@@ -520,7 +520,7 @@
         <v>80579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108080375720078</v>
+        <v>0.108080375720077</v>
       </c>
       <c r="G3" t="n">
         <v>96615.7110242586</v>
@@ -529,10 +529,10 @@
         <v>-193195.422048517</v>
       </c>
       <c r="I3" t="n">
-        <v>946.837889253657</v>
+        <v>946.837889267132</v>
       </c>
       <c r="J3" t="n">
-        <v>2.49324364133616e-206</v>
+        <v>2.49324362453784e-206</v>
       </c>
       <c r="K3" t="n">
         <v>-193028.076168242</v>
@@ -558,22 +558,22 @@
         <v>80579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10771065056736</v>
+        <v>0.107710650836627</v>
       </c>
       <c r="G4" t="n">
-        <v>96249.9594431749</v>
+        <v>96249.9594431755</v>
       </c>
       <c r="H4" t="n">
-        <v>-192455.91888635</v>
+        <v>-192455.918886351</v>
       </c>
       <c r="I4" t="n">
-        <v>1686.34105142113</v>
+        <v>1686.34105143344</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-192251.38503268</v>
+        <v>-192251.385032681</v>
       </c>
       <c r="L4" t="n">
         <v>80557</v>
@@ -605,7 +605,7 @@
         <v>-192397.741502325</v>
       </c>
       <c r="I5" t="n">
-        <v>1744.51843544553</v>
+        <v>1744.518435459</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -634,22 +634,22 @@
         <v>80579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.107922764853945</v>
+        <v>0.107922764841075</v>
       </c>
       <c r="G6" t="n">
-        <v>96025.4999556982</v>
+        <v>96025.4999557</v>
       </c>
       <c r="H6" t="n">
-        <v>-192038.999911396</v>
+        <v>-192038.9999114</v>
       </c>
       <c r="I6" t="n">
-        <v>2103.26002637448</v>
+        <v>2103.26002638435</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-191983.217951305</v>
+        <v>-191983.217951308</v>
       </c>
       <c r="L6" t="n">
         <v>80573</v>
@@ -672,22 +672,22 @@
         <v>80579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.108436433145455</v>
+        <v>0.108436433145178</v>
       </c>
       <c r="G7" t="n">
-        <v>95845.748974635</v>
+        <v>95845.7489746323</v>
       </c>
       <c r="H7" t="n">
-        <v>-191679.49794927</v>
+        <v>-191679.497949265</v>
       </c>
       <c r="I7" t="n">
-        <v>2462.7619885008</v>
+        <v>2462.76198851981</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-191623.715989178</v>
+        <v>-191623.715989173</v>
       </c>
       <c r="L7" t="n">
         <v>80573</v>
@@ -710,22 +710,22 @@
         <v>80579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.108084000859798</v>
+        <v>0.108084000859814</v>
       </c>
       <c r="G8" t="n">
-        <v>95419.8018318772</v>
+        <v>95419.8018318762</v>
       </c>
       <c r="H8" t="n">
-        <v>-190825.603663754</v>
+        <v>-190825.603663752</v>
       </c>
       <c r="I8" t="n">
-        <v>3316.65627401657</v>
+        <v>3316.65627403202</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-190760.524710314</v>
+        <v>-190760.524710312</v>
       </c>
       <c r="L8" t="n">
         <v>80572</v>
